--- a/biology/Biochimie/ADN_polymérase_delta/ADN_polymérase_delta.xlsx
+++ b/biology/Biochimie/ADN_polymérase_delta/ADN_polymérase_delta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rase_delta</t>
+          <t>ADN_polymérase_delta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN polymérase δ, ou pol δ, est une ADN polymérase présente chez les eucaryotes et qui intervient dans les processus de réplication de l'ADN et de réparation de l'ADN. Cette enzyme est constituée de quatre sous-unités : POLD1, POLD2, POLD3, et POLD4[1]. C'est elle qui intervient essentiellement dans la polymérisation du brin avancé. Sa processivité croît lorsqu'elle interagit avec le PCNA. Le facteur de réplication C est également important pour le fonctionnement de cette polymérase car elle joue le rôle de chargeur de clamp.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN polymérase δ, ou pol δ, est une ADN polymérase présente chez les eucaryotes et qui intervient dans les processus de réplication de l'ADN et de réparation de l'ADN. Cette enzyme est constituée de quatre sous-unités : POLD1, POLD2, POLD3, et POLD4. C'est elle qui intervient essentiellement dans la polymérisation du brin avancé. Sa processivité croît lorsqu'elle interagit avec le PCNA. Le facteur de réplication C est également important pour le fonctionnement de cette polymérase car elle joue le rôle de chargeur de clamp.
 </t>
         </is>
       </c>
